--- a/results/outputs/Patient_1_Electrode_6_anchor_2_arrayPos_0.2.xlsx
+++ b/results/outputs/Patient_1_Electrode_6_anchor_2_arrayPos_0.2.xlsx
@@ -13,7 +13,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+  <si>
+    <t>Electrodos</t>
+  </si>
+  <si>
+    <t>Intensidad</t>
+  </si>
+  <si>
+    <t>Paciente</t>
+  </si>
+  <si>
+    <t>Opt</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>NRT_real</t>
+  </si>
+  <si>
+    <t>NRT_sim</t>
+  </si>
+  <si>
+    <t>Trained</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>Anchor</t>
+  </si>
   <si>
     <t>Electrodos</t>
   </si>
@@ -183,7 +213,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -196,17 +226,19 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -233,34 +265,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2">
@@ -283,7 +315,7 @@
         <v>4.0639999999999997e-05</v>
       </c>
       <c r="G2" s="0">
-        <v>5.4185795169982401e-05</v>
+        <v>3.4541667756134804e-05</v>
       </c>
       <c r="H2" s="0">
         <v>1</v>
@@ -315,7 +347,7 @@
         <v>5.1569999999999996e-05</v>
       </c>
       <c r="G3" s="0">
-        <v>6.4756117427920538e-05</v>
+        <v>4.1279901611771722e-05</v>
       </c>
       <c r="H3" s="0">
         <v>1</v>
@@ -347,7 +379,7 @@
         <v>6.0449999999999999e-05</v>
       </c>
       <c r="G4" s="0">
-        <v>8.1942071456710905e-05</v>
+        <v>5.2235383805443316e-05</v>
       </c>
       <c r="H4" s="0">
         <v>1</v>
@@ -379,7 +411,7 @@
         <v>8.7430000000000008e-05</v>
       </c>
       <c r="G5" s="0">
-        <v>0.00012009035761835639</v>
+        <v>7.655366541278753e-05</v>
       </c>
       <c r="H5" s="0">
         <v>1</v>
@@ -411,7 +443,7 @@
         <v>8.1965000000000006e-05</v>
       </c>
       <c r="G6" s="0">
-        <v>0.0001201184903957404</v>
+        <v>7.6571599135941511e-05</v>
       </c>
       <c r="H6" s="0">
         <v>0</v>
@@ -443,7 +475,7 @@
         <v>7.6500000000000003e-05</v>
       </c>
       <c r="G7" s="0">
-        <v>0.00012014662317312443</v>
+        <v>7.6589532859095493e-05</v>
       </c>
       <c r="H7" s="0">
         <v>1</v>
@@ -475,7 +507,7 @@
         <v>5.2249999999999996e-05</v>
       </c>
       <c r="G8" s="0">
-        <v>8.1965000000000019e-05</v>
+        <v>5.2249999999999989e-05</v>
       </c>
       <c r="H8" s="0">
         <v>1</v>
@@ -507,7 +539,7 @@
         <v>3.8929999999999995e-05</v>
       </c>
       <c r="G9" s="0">
-        <v>6.4760748763527929e-05</v>
+        <v>4.1282853936367251e-05</v>
       </c>
       <c r="H9" s="0">
         <v>1</v>
@@ -539,7 +571,7 @@
         <v>2.8e-05</v>
       </c>
       <c r="G10" s="0">
-        <v>5.419502177926925e-05</v>
+        <v>3.4547549417029524e-05</v>
       </c>
       <c r="H10" s="0">
         <v>1</v>
@@ -571,7 +603,7 @@
         <v>8.387999999999999e-05</v>
       </c>
       <c r="G11" s="0">
-        <v>0.00011593770301879658</v>
+        <v>8.2410800047459616e-05</v>
       </c>
       <c r="H11" s="0">
         <v>1</v>
@@ -603,7 +635,7 @@
         <v>0.00010484999999999999</v>
       </c>
       <c r="G12" s="0">
-        <v>0.00013855431091223768</v>
+        <v>9.8487129854994508e-05</v>
       </c>
       <c r="H12" s="0">
         <v>1</v>
@@ -635,7 +667,7 @@
         <v>0.0001349</v>
       </c>
       <c r="G13" s="0">
-        <v>0.00017532594133740832</v>
+        <v>0.0001246251281375419</v>
       </c>
       <c r="H13" s="0">
         <v>1</v>
@@ -667,7 +699,7 @@
         <v>0.00017280999999999999</v>
       </c>
       <c r="G14" s="0">
-        <v>0.0002569492645314372</v>
+        <v>0.00018264459196857597</v>
       </c>
       <c r="H14" s="0">
         <v>1</v>
@@ -699,7 +731,7 @@
         <v>0.00017537499999999999</v>
       </c>
       <c r="G15" s="0">
-        <v>0.0002570094583438415</v>
+        <v>0.00018268737891457358</v>
       </c>
       <c r="H15" s="0">
         <v>0</v>
@@ -731,7 +763,7 @@
         <v>0.00017793999999999999</v>
       </c>
       <c r="G16" s="0">
-        <v>0.00025706965215624585</v>
+        <v>0.00018273016586057119</v>
       </c>
       <c r="H16" s="0">
         <v>1</v>
@@ -763,7 +795,7 @@
         <v>0.00012465999999999999</v>
       </c>
       <c r="G17" s="0">
-        <v>0.00017537499999999999</v>
+        <v>0.00012465999999999999</v>
       </c>
       <c r="H17" s="0">
         <v>1</v>
@@ -795,7 +827,7 @@
         <v>9.0499999999999991e-05</v>
       </c>
       <c r="G18" s="0">
-        <v>0.00013856422026967252</v>
+        <v>9.8494173621196978e-05</v>
       </c>
       <c r="H18" s="0">
         <v>1</v>
@@ -827,7 +859,7 @@
         <v>6.6599999999999993e-05</v>
       </c>
       <c r="G19" s="0">
-        <v>0.00011595744457438349</v>
+        <v>8.2424832733529209e-05</v>
       </c>
       <c r="H19" s="0">
         <v>1</v>
@@ -859,7 +891,7 @@
         <v>0.00014548999999999999</v>
       </c>
       <c r="G20" s="0">
-        <v>0.00016267307530625953</v>
+        <v>0.00012937424650479577</v>
       </c>
       <c r="H20" s="0">
         <v>1</v>
@@ -891,7 +923,7 @@
         <v>0.00016837999999999998</v>
       </c>
       <c r="G21" s="0">
-        <v>0.00019440661032743727</v>
+        <v>0.00015461199512772678</v>
       </c>
       <c r="H21" s="0">
         <v>1</v>
@@ -923,7 +955,7 @@
         <v>0.00020730999999999999</v>
       </c>
       <c r="G22" s="0">
-        <v>0.0002460011654163709</v>
+        <v>0.00019564525570766041</v>
       </c>
       <c r="H22" s="0">
         <v>1</v>
@@ -955,7 +987,7 @@
         <v>0.00023940999999999999</v>
       </c>
       <c r="G23" s="0">
-        <v>0.00036052747269137977</v>
+        <v>0.00028672827409153141</v>
       </c>
       <c r="H23" s="0">
         <v>1</v>
@@ -987,7 +1019,7 @@
         <v>0.00024606999999999998</v>
       </c>
       <c r="G24" s="0">
-        <v>0.00036061193108863327</v>
+        <v>0.0002867954440364354</v>
       </c>
       <c r="H24" s="0">
         <v>0</v>
@@ -1019,7 +1051,7 @@
         <v>0.00025273</v>
       </c>
       <c r="G25" s="0">
-        <v>0.00036069638948588677</v>
+        <v>0.00028686261398133944</v>
       </c>
       <c r="H25" s="0">
         <v>1</v>
@@ -1051,7 +1083,7 @@
         <v>0.00019569999999999999</v>
       </c>
       <c r="G26" s="0">
-        <v>0.00024606999999999993</v>
+        <v>0.00019569999999999991</v>
       </c>
       <c r="H26" s="0">
         <v>1</v>
@@ -1083,7 +1115,7 @@
         <v>0.00014788</v>
       </c>
       <c r="G27" s="0">
-        <v>0.00019442051422242798</v>
+        <v>0.00015462305292530276</v>
       </c>
       <c r="H27" s="0">
         <v>1</v>
@@ -1115,7 +1147,7 @@
         <v>0.00010724</v>
       </c>
       <c r="G28" s="0">
-        <v>0.0001627007748334628</v>
+        <v>0.00012939627599832873</v>
       </c>
       <c r="H28" s="0">
         <v>1</v>
